--- a/reference/model/全部Type 尺寸表 整理後.xlsx
+++ b/reference/model/全部Type 尺寸表 整理後.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\140.116.71.101\users\91802-研究\Casper\金屬中心專題\給俊良\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ou918\Downloads\AI-optimization\reference\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6C3647-FDC5-44DC-963F-CD8A00BBAA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB829DD-F6C7-404C-934B-02E89FAE096C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24060" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -140,8 +140,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -493,172 +496,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="1"/>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
